--- a/Documentation/RACI.xlsx
+++ b/Documentation/RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunoguei\Desktop\PA_2023\AutoSocDeploy\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA92DF8B-97C8-4754-AA4B-6E96BBC3C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A70A25-4AA5-462C-85EC-306FCAA92763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>Responsible</t>
   </si>
@@ -167,13 +167,7 @@
     <t>Khalil</t>
   </si>
   <si>
-    <t>Serveur AD : Mise en place de Splunk Entreprise</t>
-  </si>
-  <si>
     <t>Serveur Web : Mise en place d'un Linux avec un Honeypot Wordpress</t>
-  </si>
-  <si>
-    <t>File integrity monitoring</t>
   </si>
   <si>
     <t>Début mise en place d'une solution qui test nos alertes Splunk</t>
@@ -182,31 +176,7 @@
     <t>Serveur Windows : Mise en place d'un Windows 10 pro avec un Honeypot</t>
   </si>
   <si>
-    <t>Serveur Windows : Sysmon configuré sur le poste W10 pro client</t>
-  </si>
-  <si>
-    <t>Serveur Web : Auditd configuré sur le Serveur Web</t>
-  </si>
-  <si>
-    <t>Serveur AD : Splunk server reçoit des logs des 2 machines</t>
-  </si>
-  <si>
-    <t>Serveur AD : Début construction de règles, alertes sur splunk</t>
-  </si>
-  <si>
-    <t>Serveur AD : Construction de règles, alertes sur splunk</t>
-  </si>
-  <si>
-    <t>Tester une attaque sur AD (smbexec ou autre ... )</t>
-  </si>
-  <si>
     <t>Amélioration infra</t>
-  </si>
-  <si>
-    <t>Dernières modifications, date de fin du projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Réalisation d'une analyse d infra(nmap) </t>
   </si>
   <si>
     <t>Massyl</t>
@@ -214,12 +184,39 @@
   <si>
     <t>AutoSocDeploy</t>
   </si>
+  <si>
+    <t>Serveur AD : Mise en place de Splunk Entreprise avec Ansible</t>
+  </si>
+  <si>
+    <t>Serveur Windows : Sysmon configuré sur le poste W10 pro client avec Ansible</t>
+  </si>
+  <si>
+    <t>Serveur Web : Auditd configuré sur le Serveur Web avec Ansible</t>
+  </si>
+  <si>
+    <t>Serveur AD : Splunk server reçoit des logs des 2 machines avec Ansible</t>
+  </si>
+  <si>
+    <t>Serveur AD : Début construction de règles, alertes sur splunk avec Ansible</t>
+  </si>
+  <si>
+    <t>Serveur AD : Construction de règles, alertes sur splunk avec Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Réalisation d'une analyse d'infra (nmap) </t>
+  </si>
+  <si>
+    <t>Tester une attaque sur AD (smbexec ou autre...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dernières modifications, date de fin du projet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,12 +438,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -830,7 +821,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,84 +839,15 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="0.79995117038483843"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="0.79995117038483843"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="138">
     <dxf>
       <font>
         <b/>
@@ -2962,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,7 +2909,7 @@
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3015,27 +2936,27 @@
       <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
     </row>
     <row r="5" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
@@ -3156,7 +3077,7 @@
     <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>38</v>
@@ -3192,7 +3113,7 @@
     <row r="10" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>38</v>
@@ -3228,7 +3149,7 @@
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>39</v>
@@ -3286,7 +3207,7 @@
     <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>38</v>
@@ -3322,7 +3243,7 @@
     <row r="14" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>38</v>
@@ -3358,7 +3279,7 @@
     <row r="15" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>38</v>
@@ -3394,7 +3315,7 @@
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>39</v>
@@ -3464,7 +3385,7 @@
     <row r="18" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="24"/>
@@ -3495,10 +3416,10 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
     </row>
-    <row r="19" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="24"/>
@@ -3530,64 +3451,64 @@
       <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="35" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J21" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="35" t="s">
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="35" t="s">
+      <c r="O21" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
     </row>
-    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="34"/>
@@ -3619,185 +3540,174 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
       <c r="B23" s="33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="24" t="s">
+      <c r="D23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="L23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
       <c r="M23" s="35"/>
-      <c r="N23" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="R23" s="35"/>
     </row>
     <row r="24" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="35"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
     </row>
     <row r="25" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35" t="s">
+    <row r="26" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="O26" s="46"/>
+    </row>
+    <row r="27" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R26" s="35"/>
-    </row>
-    <row r="27" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
+      <c r="B27" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>0</v>
+      <c r="A28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>2</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" s="46"/>
     </row>
-    <row r="29" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>2</v>
+    <row r="29" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>4</v>
+      <c r="A30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3809,36 +3719,13 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="46"/>
+      <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
+    <row r="31" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3847,8 +3734,8 @@
     <mergeCell ref="N4:R4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E21:R21 D22:R24 D26:R26 E25:R25 D5:R20" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$A$28:$A$31</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="E20:R20 D5:R19 E24:R24 D25:R25 D21:R23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$A$27:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3875,56 +3762,56 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="320" operator="containsText" id="{4DC73053-EBD1-4ECE-A384-6E0F42790FB6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$28,D5)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="321" operator="containsText" id="{4ED35D99-0DF7-4406-B42A-5C1F7BBED4B1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,D5)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="322" operator="containsText" id="{8DA62EB6-D5DE-4895-84A7-412A0F0F24CA}">
             <xm:f>NOT(ISERROR(SEARCH($A$29,D5)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="321" operator="containsText" id="{4ED35D99-0DF7-4406-B42A-5C1F7BBED4B1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D5)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="322" operator="containsText" id="{8DA62EB6-D5DE-4895-84A7-412A0F0F24CA}">
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="323" operator="containsText" id="{00608CF9-EFEC-4933-9474-91AD6557E6C1}">
             <xm:f>NOT(ISERROR(SEARCH($A$30,D5)))</xm:f>
             <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="323" operator="containsText" id="{00608CF9-EFEC-4933-9474-91AD6557E6C1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D5)))</xm:f>
-            <xm:f>$A$31</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3954,11 +3841,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H26:I26 M26:N26 D23:R23 R26 D5:R9 D20:R20 D11:R17</xm:sqref>
+          <xm:sqref>H25:I25 M25:N25 D22:R22 R25 D5:R9 D19:R19 D11:R17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="277" operator="containsText" id="{8ED3752F-FCB9-4ADA-B26F-14599E59C744}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E21)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E20)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -3974,60 +3861,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="278" operator="containsText" id="{209650ED-7198-40CE-A8E1-DE97C5EE54C8}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,E21)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,E20)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="279" operator="containsText" id="{B8B734B4-2A81-4718-B3A9-BABE7A0F7DF7}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,E20)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="280" operator="containsText" id="{D61A174A-5D79-4551-AF71-FECF3BDBC7E1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,E20)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="279" operator="containsText" id="{B8B734B4-2A81-4718-B3A9-BABE7A0F7DF7}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,E21)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="280" operator="containsText" id="{D61A174A-5D79-4551-AF71-FECF3BDBC7E1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,E21)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="281" operator="containsText" id="{ADFE7C42-63A8-431D-9819-DCB2D8893B80}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,E20)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="281" operator="containsText" id="{ADFE7C42-63A8-431D-9819-DCB2D8893B80}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,E21)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4038,7 +3925,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="282" operator="containsText" id="{BBC7E1CA-E110-4F72-97B2-F085DDDEAAB8}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E21)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E20)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4053,11 +3940,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H22 K22:M22 M24 E21:R21 P22:R22 R24</xm:sqref>
+          <xm:sqref>H21 K21:M21 M23 E20:R20 P21:R21 R23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="271" operator="containsText" id="{4A4F05CF-FE5B-40C8-A87C-E47C0F1D37F0}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4073,60 +3960,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="272" operator="containsText" id="{372836F5-D3F5-4EC5-A2FF-23DBF8CD6933}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,D21)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="273" operator="containsText" id="{75FDAB6E-0B02-4FBE-94B0-38BE749839E9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,D21)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="274" operator="containsText" id="{6B94F7E5-1551-4329-ABEC-E5022834F7E5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,D21)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="273" operator="containsText" id="{75FDAB6E-0B02-4FBE-94B0-38BE749839E9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D22)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="274" operator="containsText" id="{6B94F7E5-1551-4329-ABEC-E5022834F7E5}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D22)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="275" operator="containsText" id="{E851288A-EB41-4598-9CDA-0ADAB7F0773D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,D21)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="275" operator="containsText" id="{E851288A-EB41-4598-9CDA-0ADAB7F0773D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D22)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4137,7 +4024,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="276" operator="containsText" id="{6685B0AE-3229-41D1-962C-2BA55FCA5FCA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4152,11 +4039,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D22:E22</xm:sqref>
+          <xm:sqref>D21:E21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="259" operator="containsText" id="{1A76F9E1-E213-4E99-8985-8F09A87E28DA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4172,60 +4059,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="260" operator="containsText" id="{1602C306-A240-4EBC-B18E-0E068EFD4D59}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,F24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,F23)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="261" operator="containsText" id="{A3C530CE-AD7F-4230-A513-AD7AF13B9C2D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,F23)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="262" operator="containsText" id="{766E426A-FA60-4974-822D-9D11A4638E64}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,F23)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="261" operator="containsText" id="{A3C530CE-AD7F-4230-A513-AD7AF13B9C2D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,F24)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="262" operator="containsText" id="{766E426A-FA60-4974-822D-9D11A4638E64}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,F24)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="263" operator="containsText" id="{3B7AED7B-D321-448D-97A2-06144EE47266}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,F23)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="263" operator="containsText" id="{3B7AED7B-D321-448D-97A2-06144EE47266}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,F24)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4236,7 +4123,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="264" operator="containsText" id="{33076B74-A455-4206-9777-8B53139AC550}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4251,11 +4138,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F24:J24</xm:sqref>
+          <xm:sqref>F23:J23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="253" operator="containsText" id="{45EF5946-8947-4483-9077-4F5F257885CF}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E25)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E24)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4271,60 +4158,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="254" operator="containsText" id="{65C4960D-2D24-4CDF-8551-B252372DAFF9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,E25)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,E24)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="255" operator="containsText" id="{2CF0E1CC-4DA9-4C7F-8D87-39150CF30409}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,E24)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="256" operator="containsText" id="{CEB99440-645D-4341-865C-214CD990E070}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,E24)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="255" operator="containsText" id="{2CF0E1CC-4DA9-4C7F-8D87-39150CF30409}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,E25)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="256" operator="containsText" id="{CEB99440-645D-4341-865C-214CD990E070}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,E25)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="257" operator="containsText" id="{6BF6D0EF-8F2B-4253-BA31-38CD7489842D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,E24)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="257" operator="containsText" id="{6BF6D0EF-8F2B-4253-BA31-38CD7489842D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,E25)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4335,7 +4222,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="258" operator="containsText" id="{F93EC8AF-D78D-46F8-9B70-3F57EDE809BB}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E25)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E24)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4350,11 +4237,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E25:R25</xm:sqref>
+          <xm:sqref>E24:R24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="217" operator="containsText" id="{4ED99E5E-00C5-4957-A5F5-3CC7A9C51A5C}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4370,60 +4257,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="218" operator="containsText" id="{7F2F8D10-92B6-47A8-BC03-31178291E51A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,F22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,F21)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="219" operator="containsText" id="{618AABA8-C1FC-4801-BCC8-0E7B751503DF}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,F21)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="220" operator="containsText" id="{00A8E1B1-8EDC-470B-8297-0B130527D523}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,F21)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="219" operator="containsText" id="{618AABA8-C1FC-4801-BCC8-0E7B751503DF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,F22)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="220" operator="containsText" id="{00A8E1B1-8EDC-470B-8297-0B130527D523}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,F22)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="221" operator="containsText" id="{C175189F-87AE-40E0-B2FC-150971EF7DCA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,F21)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="221" operator="containsText" id="{C175189F-87AE-40E0-B2FC-150971EF7DCA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,F22)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4434,7 +4321,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="222" operator="containsText" id="{350D8477-3010-458F-9D59-A8FF9DC73BD5}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4449,11 +4336,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F22:G22</xm:sqref>
+          <xm:sqref>F21:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="211" operator="containsText" id="{552CD931-CD31-4F27-98EA-E7F739343368}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4469,60 +4356,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="212" operator="containsText" id="{938B01A1-148A-4857-9C76-ACBBA6AFAE37}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,D23)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="213" operator="containsText" id="{47A7D313-33DD-415A-8F0E-27ED44062818}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,D23)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="214" operator="containsText" id="{CB5CA49B-7D57-4081-B085-C2FCDD766EA2}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,D23)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="213" operator="containsText" id="{47A7D313-33DD-415A-8F0E-27ED44062818}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D24)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="214" operator="containsText" id="{CB5CA49B-7D57-4081-B085-C2FCDD766EA2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D24)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="215" operator="containsText" id="{CCDDA52A-29B7-4D96-AEE5-546E50CAB718}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,D23)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="215" operator="containsText" id="{CCDDA52A-29B7-4D96-AEE5-546E50CAB718}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D24)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4533,7 +4420,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="216" operator="containsText" id="{DE04A0FE-FC1F-4967-9450-DA89B28179B1}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4548,11 +4435,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D24:E24</xm:sqref>
+          <xm:sqref>D23:E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="205" operator="containsText" id="{7DC08827-3031-4390-AC1B-123EA4F0066E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,I22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,I21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4568,60 +4455,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="206" operator="containsText" id="{CCFBCCE3-5F06-4228-824A-328113905E6C}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,I22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,I21)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="207" operator="containsText" id="{45FFABD4-24BC-4331-B422-5EE3D0251441}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,I21)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="208" operator="containsText" id="{03BC2891-2970-4E7E-AE77-166FFE02C9E2}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,I21)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="207" operator="containsText" id="{45FFABD4-24BC-4331-B422-5EE3D0251441}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,I22)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="208" operator="containsText" id="{03BC2891-2970-4E7E-AE77-166FFE02C9E2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,I22)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="209" operator="containsText" id="{E9833BFD-562F-456C-9921-C1063C6E3CC9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,I21)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="209" operator="containsText" id="{E9833BFD-562F-456C-9921-C1063C6E3CC9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,I22)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4632,7 +4519,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="210" operator="containsText" id="{7A96EE79-3CC3-4324-B1F4-F94B6CA0B540}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,I22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,I21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4647,11 +4534,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I22:J22</xm:sqref>
+          <xm:sqref>I21:J21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="199" operator="containsText" id="{4B1D6A2D-45C0-4C26-897C-4C5737C2B820}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4667,60 +4554,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="200" operator="containsText" id="{F0FFBDFF-A742-420A-8EE8-4D5C71459784}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,K24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,K23)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="201" operator="containsText" id="{A9478BE6-9797-459D-B5A3-DC65C30CCB21}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,K23)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="202" operator="containsText" id="{B5897AB5-DDD7-47DA-A636-16491EAA0CEA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,K23)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="201" operator="containsText" id="{A9478BE6-9797-459D-B5A3-DC65C30CCB21}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,K24)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="202" operator="containsText" id="{B5897AB5-DDD7-47DA-A636-16491EAA0CEA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,K24)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="203" operator="containsText" id="{77BE18D4-ED0B-4B17-868E-22D52A05E0DF}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,K23)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="203" operator="containsText" id="{77BE18D4-ED0B-4B17-868E-22D52A05E0DF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,K24)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4731,7 +4618,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="204" operator="containsText" id="{FFA469F9-862B-433A-96F8-79B8E787E7AA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4746,11 +4633,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K24:L24</xm:sqref>
+          <xm:sqref>K23:L23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="193" operator="containsText" id="{02C498C6-B7D2-4B2F-982C-20DC8215B9E3}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4766,60 +4653,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="194" operator="containsText" id="{EDC66636-530B-414B-98E0-F684F2C1EF87}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,D25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="195" operator="containsText" id="{79E08907-C4B5-4B48-BFB0-A874377ACE8F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,D25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="196" operator="containsText" id="{86188BB9-1D47-4D19-A764-30396278B025}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,D25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="195" operator="containsText" id="{79E08907-C4B5-4B48-BFB0-A874377ACE8F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="196" operator="containsText" id="{86188BB9-1D47-4D19-A764-30396278B025}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="197" operator="containsText" id="{85354E67-1537-4CB3-96EF-D71FB7F4F974}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,D25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="197" operator="containsText" id="{85354E67-1537-4CB3-96EF-D71FB7F4F974}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4830,7 +4717,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="198" operator="containsText" id="{C5ED2D03-9583-4B18-8853-72F541C8A99E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4845,11 +4732,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D26:E26</xm:sqref>
+          <xm:sqref>D25:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="187" operator="containsText" id="{DF022512-57B8-40E0-876B-1BF319FD2A38}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,J26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,J25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4865,60 +4752,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="188" operator="containsText" id="{7FDECD9B-B4E3-4526-87E0-9C5184971F56}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,J26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,J25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="189" operator="containsText" id="{4B0F734F-1BDF-47D8-A954-AF32C76FD97E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,J25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{594FB8F7-06B8-4342-B640-74A466D0411E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,J25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="189" operator="containsText" id="{4B0F734F-1BDF-47D8-A954-AF32C76FD97E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,J26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{594FB8F7-06B8-4342-B640-74A466D0411E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,J26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="191" operator="containsText" id="{4FE49593-E4A8-404F-8C2C-DA721A521A6A}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,J25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="191" operator="containsText" id="{4FE49593-E4A8-404F-8C2C-DA721A521A6A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,J26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -4929,7 +4816,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="192" operator="containsText" id="{E51359C2-A02D-4A5E-A4D6-599962FF6914}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,J26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,J25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4944,11 +4831,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J26</xm:sqref>
+          <xm:sqref>J25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="181" operator="containsText" id="{C74EA167-4D1C-4504-B8FE-232F4F30BBAE}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4964,60 +4851,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="182" operator="containsText" id="{34E193BB-BD91-4F38-BEFA-65EE46A13227}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,F26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,F25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="183" operator="containsText" id="{FF84A5FD-85EA-4D77-8849-3163DBA399E5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,F25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="184" operator="containsText" id="{2780C6A4-DA8C-4456-8829-3CB0368DB3BF}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,F25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="183" operator="containsText" id="{FF84A5FD-85EA-4D77-8849-3163DBA399E5}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,F26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="184" operator="containsText" id="{2780C6A4-DA8C-4456-8829-3CB0368DB3BF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,F26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="185" operator="containsText" id="{295AC5CA-68FE-4FDC-A99B-8A933BF14238}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,F25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="185" operator="containsText" id="{295AC5CA-68FE-4FDC-A99B-8A933BF14238}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,F26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5028,7 +4915,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="186" operator="containsText" id="{26AB4A0A-672C-49B7-A673-E14232C2F9BA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5043,11 +4930,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F26</xm:sqref>
+          <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="175" operator="containsText" id="{190BF9BD-996A-464D-941C-F0C59987D798}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5063,60 +4950,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="176" operator="containsText" id="{C9849531-F5BF-40BF-94E8-FDCC44070947}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,K26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,K25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="177" operator="containsText" id="{3C7E2CDD-74E6-49A2-A29C-57FE584A7E22}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,K25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="178" operator="containsText" id="{B92E3912-8217-4B48-B718-9EE6AFCD81F1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,K25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="177" operator="containsText" id="{3C7E2CDD-74E6-49A2-A29C-57FE584A7E22}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,K26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="178" operator="containsText" id="{B92E3912-8217-4B48-B718-9EE6AFCD81F1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,K26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="179" operator="containsText" id="{3A8BB25E-B314-4E45-A748-9EE79049836A}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,K25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="179" operator="containsText" id="{3A8BB25E-B314-4E45-A748-9EE79049836A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,K26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5127,7 +5014,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="180" operator="containsText" id="{1781BF7F-4BF0-42F4-8D68-1EB85D698276}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5142,11 +5029,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K26</xm:sqref>
+          <xm:sqref>K25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="169" operator="containsText" id="{A17D782B-E724-4BB3-A30B-8DBF0A0FB918}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,G26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,G25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5162,60 +5049,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="170" operator="containsText" id="{F02ACAEB-F181-45B5-A8C8-B376BB149F7F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,G26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,G25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="171" operator="containsText" id="{0658877D-38ED-41FF-B3FA-220CA93DC06D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,G25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="172" operator="containsText" id="{797A8AA2-6E10-4EFB-A028-F679855A2588}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,G25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="171" operator="containsText" id="{0658877D-38ED-41FF-B3FA-220CA93DC06D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,G26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="172" operator="containsText" id="{797A8AA2-6E10-4EFB-A028-F679855A2588}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,G26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="173" operator="containsText" id="{9F6DFE7A-3D7F-4F12-8E64-1CE5C7A5719F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,G25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="173" operator="containsText" id="{9F6DFE7A-3D7F-4F12-8E64-1CE5C7A5719F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,G26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5226,7 +5113,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="174" operator="containsText" id="{52B1A668-8B68-4B04-9D88-8FBD406FCECD}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,G26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,G25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5241,11 +5128,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G26</xm:sqref>
+          <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="163" operator="containsText" id="{C6BF6126-3665-4C56-86A0-1C1D5162DF89}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,L26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,L25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5261,60 +5148,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="164" operator="containsText" id="{A5958BF3-EBD3-46D0-9AF0-9BAADDC737A2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,L26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,L25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="165" operator="containsText" id="{1599242A-BCF2-45AF-9D0F-E908A6839D76}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,L25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="166" operator="containsText" id="{7D33F1A1-23F1-4EC0-9D7F-315CDA8381FA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,L25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="165" operator="containsText" id="{1599242A-BCF2-45AF-9D0F-E908A6839D76}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,L26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="166" operator="containsText" id="{7D33F1A1-23F1-4EC0-9D7F-315CDA8381FA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,L26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="167" operator="containsText" id="{2AC32AB8-5FF5-4A5B-BA9B-82D9E80F173B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,L25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="167" operator="containsText" id="{2AC32AB8-5FF5-4A5B-BA9B-82D9E80F173B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,L26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5325,7 +5212,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="168" operator="containsText" id="{D6994F26-A7C7-4312-A5BD-451110619FDC}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,L26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,L25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5340,7 +5227,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L26</xm:sqref>
+          <xm:sqref>L25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="49" operator="containsText" id="{82D876D4-E2E9-45CB-9781-C7BF970D1D3F}">
@@ -5360,56 +5247,56 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="50" operator="containsText" id="{8699AF83-F071-46F5-9AEE-107DBC1FD736}">
+            <xm:f>NOT(ISERROR(SEARCH($A$28,D10)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{757A0196-A289-498D-9291-2B46DD72DE23}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,D10)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{62447D4F-5AC9-4C02-824F-E0F28B751732}">
             <xm:f>NOT(ISERROR(SEARCH($A$29,D10)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{757A0196-A289-498D-9291-2B46DD72DE23}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D10)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{62447D4F-5AC9-4C02-824F-E0F28B751732}">
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{4F94B954-A5DB-410E-9A73-1027AA6F7440}">
             <xm:f>NOT(ISERROR(SEARCH($A$30,D10)))</xm:f>
             <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{4F94B954-A5DB-410E-9A73-1027AA6F7440}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D10)))</xm:f>
-            <xm:f>$A$31</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5440,105 +5327,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D10:R10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{12A62F3B-FCE5-4353-9B27-07D24A37820E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D19)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="6" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{EEBACFC2-6054-47D9-8540-08BB9A85CD64}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D19)))</xm:f>
-            <xm:f>$A$29</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{CDF61AAC-B4B2-4EF0-8F5D-52BB0D3A44E0}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D19)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{0E336960-8A0F-4002-BAF0-A8F3F62FE27B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D19)))</xm:f>
-            <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{A62D953B-B146-483E-910C-7896CFFB19FF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D19)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="7" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{263ED7D1-3AC8-4118-A0C4-124E694E3C25}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D19)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D19:R19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="37" operator="containsText" id="{8E2BFBFE-A333-40A5-96C1-81F9568425E6}">
@@ -5558,56 +5346,56 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="38" operator="containsText" id="{92D41420-A2F4-42F6-8F11-B4BB54146A7B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$28,D18)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{A1020516-E2CA-483D-AC2E-81506E82C7C4}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,D18)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{9E4C44F9-CD1F-4B6E-A089-30DB8E788466}">
             <xm:f>NOT(ISERROR(SEARCH($A$29,D18)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{A1020516-E2CA-483D-AC2E-81506E82C7C4}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D18)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{9E4C44F9-CD1F-4B6E-A089-30DB8E788466}">
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{D6446F6D-A9C3-457B-910E-A48D73F9A85B}">
             <xm:f>NOT(ISERROR(SEARCH($A$30,D18)))</xm:f>
             <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{D6446F6D-A9C3-457B-910E-A48D73F9A85B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,D18)))</xm:f>
-            <xm:f>$A$31</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5641,7 +5429,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="31" operator="containsText" id="{1EBED33D-BD17-48CD-90D4-D63191004FC0}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5657,60 +5445,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="32" operator="containsText" id="{56E95095-ED59-460C-A81C-82AB460BBCF4}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,N24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,N23)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{9715CB12-12AF-4BA7-91A6-4411EDBA431E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,N23)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{2EBECC3C-AF8E-494B-B9C7-769392E4441E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,N23)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{9715CB12-12AF-4BA7-91A6-4411EDBA431E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,N24)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{2EBECC3C-AF8E-494B-B9C7-769392E4441E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,N24)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{9F32A862-838F-4823-8F84-3054E012737F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,N23)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{9F32A862-838F-4823-8F84-3054E012737F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,N24)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5721,7 +5509,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="36" operator="containsText" id="{C0F60F26-74B5-4D2F-9C6A-0780F037CE50}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5736,11 +5524,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N24:O24</xm:sqref>
+          <xm:sqref>N23:O23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="25" operator="containsText" id="{3C6A8B44-1D07-4FD6-91B7-B67242F5F914}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5756,60 +5544,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="26" operator="containsText" id="{8401A2BF-AD62-46DA-89AC-3A180170F1AE}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,N22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,N21)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{720EE669-A652-45D7-841A-C22B00C81194}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,N21)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{988FB7DD-C37E-4960-879E-1362023E1DEA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,N21)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{720EE669-A652-45D7-841A-C22B00C81194}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,N22)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{988FB7DD-C37E-4960-879E-1362023E1DEA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,N22)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{0D036C3E-2E3B-4DF2-9250-D215843E3DAD}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,N21)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{0D036C3E-2E3B-4DF2-9250-D215843E3DAD}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,N22)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5820,7 +5608,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="30" operator="containsText" id="{E9F76617-A4E6-4CA8-ABE2-3979D24B8045}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N21)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5835,11 +5623,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N22:O22</xm:sqref>
+          <xm:sqref>N21:O21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="19" operator="containsText" id="{ACC0CC5D-A948-4349-A9BB-6B57172D1BBC}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5855,60 +5643,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="20" operator="containsText" id="{DD807A6D-D8EB-44ED-BC6B-96A9E60A7498}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,P24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,P23)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F9549B51-283A-4A97-A0F2-11BD34FE40DE}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,P23)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{284F70C1-224E-4D77-8820-73AC1D77E822}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,P23)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F9549B51-283A-4A97-A0F2-11BD34FE40DE}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,P24)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{284F70C1-224E-4D77-8820-73AC1D77E822}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,P24)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{37FA26E4-6060-41AA-988A-514DA169F101}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,P23)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{37FA26E4-6060-41AA-988A-514DA169F101}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,P24)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5919,7 +5707,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="24" operator="containsText" id="{7B5C4A96-227A-419D-9552-54AE43C5F20E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P24)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P23)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5934,11 +5722,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>P24:Q24</xm:sqref>
+          <xm:sqref>P23:Q23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="13" operator="containsText" id="{D25F6104-7B0F-4468-A4ED-96DCB57BDD22}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,O26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,O25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5954,60 +5742,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="14" operator="containsText" id="{C372DD8E-7826-40B2-9D28-0CF9803C493D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,O26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,O25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F9411191-C55D-4FA9-A969-2C1870958B95}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,O25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{EA57C70B-FEAF-4F38-BC9F-B8A62528B1D7}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,O25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F9411191-C55D-4FA9-A969-2C1870958B95}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,O26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{EA57C70B-FEAF-4F38-BC9F-B8A62528B1D7}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,O26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{3F2F86EF-4E28-4FFE-8F37-1892D83E882A}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,O25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{3F2F86EF-4E28-4FFE-8F37-1892D83E882A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,O26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -6018,7 +5806,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="18" operator="containsText" id="{F9B170CC-8EFD-4174-9938-12D2AE123588}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,O26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,O25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -6033,11 +5821,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O26</xm:sqref>
+          <xm:sqref>O25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{16BB20F0-305A-4E9D-8635-C208C984F81B}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -6053,60 +5841,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{C646EF8D-4791-4CF5-88A8-1C135D61D13E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,P26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,P25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{95B8B86D-F436-47F6-9580-152E7195A790}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,P25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0E0B8CA3-C767-4D19-8A35-7BDDE308D738}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,P25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{95B8B86D-F436-47F6-9580-152E7195A790}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,P26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0E0B8CA3-C767-4D19-8A35-7BDDE308D738}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,P26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{BBF4753D-2D88-40F5-9AB8-05493391C677}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,P25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{BBF4753D-2D88-40F5-9AB8-05493391C677}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,P26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -6117,7 +5905,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="12" operator="containsText" id="{C666083B-599E-4C35-B274-2627FBFC63EF}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -6132,11 +5920,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>P26</xm:sqref>
+          <xm:sqref>P25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{E8A0B34A-409C-4FE1-8905-C5E394614643}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,Q26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,Q25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -6152,60 +5940,60 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{645476D1-5C4D-47F2-901D-F287379B26C3}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,Q26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$28,Q25)))</xm:f>
+            <xm:f>$A$28</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{BFD633D8-F1C8-4779-9459-CECC8ADBD203}">
+            <xm:f>NOT(ISERROR(SEARCH($A$27,Q25)))</xm:f>
+            <xm:f>$A$27</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{418AE355-34D1-4D20-8735-ACBC6166781D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$29,Q25)))</xm:f>
             <xm:f>$A$29</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{BFD633D8-F1C8-4779-9459-CECC8ADBD203}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,Q26)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{418AE355-34D1-4D20-8735-ACBC6166781D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,Q26)))</xm:f>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{F63D623C-C6BE-49BF-9396-3472FF5E7EC6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$30,Q25)))</xm:f>
             <xm:f>$A$30</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{F63D623C-C6BE-49BF-9396-3472FF5E7EC6}">
-            <xm:f>NOT(ISERROR(SEARCH($A$31,Q26)))</xm:f>
-            <xm:f>$A$31</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="7" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -6216,7 +6004,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{5070FD29-98FC-4B2D-9AE7-D25D64DC2358}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,Q26)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,Q25)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -6231,7 +6019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q26</xm:sqref>
+          <xm:sqref>Q25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documentation/RACI.xlsx
+++ b/Documentation/RACI.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunoguei\Desktop\PA_2023\AutoSocDeploy\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A70A25-4AA5-462C-85EC-306FCAA92763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5949C27-6308-4D35-BD2E-A2E76CFA14D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="2" r:id="rId1"/>
-    <sheet name="About" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Matrix!$4:$4</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="74">
   <si>
     <t>Responsible</t>
   </si>
@@ -95,48 +94,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>License: Private Use Only</t>
-  </si>
-  <si>
-    <t>© 2018 Vertex42 LLC</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/raci-matrix.html</t>
-  </si>
-  <si>
-    <t>About This Template</t>
-  </si>
-  <si>
-    <t>More Project Management Templates</t>
-  </si>
-  <si>
-    <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
-  </si>
-  <si>
-    <t>Project Management Templates</t>
-  </si>
-  <si>
-    <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
-  </si>
-  <si>
-    <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
-  </si>
-  <si>
-    <t>RACI MATRIX TEMPLATE by Vertex42.com</t>
-  </si>
-  <si>
-    <t>This template is a copyrighted work. Do not submit copies or modifications of this template to any website or online template gallery. Click on the link below to learn how you may or may not use this template.</t>
-  </si>
-  <si>
-    <t>Terms of Use / Copyright</t>
-  </si>
-  <si>
-    <t>Use this template within your project team to help clarify and communicate roles and responsibilities for each task or deliverable. Start by inserting rows to define the tasks and deliverables and insert columns as needed to define the roles of sponsors, leaders, consultants, and project team members. Customize the abbreviations below the chart based on the method you are using (RACI, DRASCI, CAIRO, etc.).</t>
-  </si>
-  <si>
     <t>Luis</t>
   </si>
   <si>
@@ -167,56 +124,152 @@
     <t>Khalil</t>
   </si>
   <si>
-    <t>Serveur Web : Mise en place d'un Linux avec un Honeypot Wordpress</t>
-  </si>
-  <si>
-    <t>Début mise en place d'une solution qui test nos alertes Splunk</t>
-  </si>
-  <si>
-    <t>Serveur Windows : Mise en place d'un Windows 10 pro avec un Honeypot</t>
-  </si>
-  <si>
-    <t>Amélioration infra</t>
-  </si>
-  <si>
     <t>Massyl</t>
   </si>
   <si>
     <t>AutoSocDeploy</t>
   </si>
   <si>
-    <t>Serveur AD : Mise en place de Splunk Entreprise avec Ansible</t>
+    <t xml:space="preserve">  Dernières modifications, date de fin du projet</t>
   </si>
   <si>
-    <t>Serveur Windows : Sysmon configuré sur le poste W10 pro client avec Ansible</t>
+    <t>Définir les exigences pour Splunk</t>
   </si>
   <si>
-    <t>Serveur Web : Auditd configuré sur le Serveur Web avec Ansible</t>
+    <t>Installer et configurer Ansible sur le serveur Splunk</t>
   </si>
   <si>
-    <t>Serveur AD : Splunk server reçoit des logs des 2 machines avec Ansible</t>
+    <t>Créer des playbooks Ansible pour installer et configurer Splunk</t>
   </si>
   <si>
-    <t>Serveur AD : Début construction de règles, alertes sur splunk avec Ansible</t>
+    <t>Tester la mise en place de Splunk</t>
   </si>
   <si>
-    <t>Serveur AD : Construction de règles, alertes sur splunk avec Ansible</t>
+    <t xml:space="preserve">Installer et configurer un deuxième serveur Linux </t>
   </si>
   <si>
-    <t xml:space="preserve">   Réalisation d'une analyse d'infra (nmap) </t>
+    <t xml:space="preserve">Définir les exigences pour Splunk Forwarder Linux </t>
   </si>
   <si>
-    <t>Tester une attaque sur AD (smbexec ou autre...)</t>
+    <t xml:space="preserve">Définir problématiques configuration Ansible à distance </t>
   </si>
   <si>
-    <t xml:space="preserve">  Dernières modifications, date de fin du projet</t>
+    <t>Installer et configurer un serveur Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Définir les exigences pour Splunk Forwarder Windows</t>
+  </si>
+  <si>
+    <t>Créer des playbooks Ansible pour installer et configurer Splunk Forwarder sur Linux</t>
+  </si>
+  <si>
+    <t>Créer des playbooks Ansible pour installer et configurer Splunk Forwarder sur Windows</t>
+  </si>
+  <si>
+    <t>Identifier honeypot Linux</t>
+  </si>
+  <si>
+    <t>Identifier honeypot Windows</t>
+  </si>
+  <si>
+    <t>Installer et configurer Honeypot Linux</t>
+  </si>
+  <si>
+    <t>Installer et configurer Honeypot Windows</t>
+  </si>
+  <si>
+    <t>Identifier les journaux à recolter - honeypot Linux</t>
+  </si>
+  <si>
+    <t>Identifier les journaux à recolter - honeypot Windows</t>
+  </si>
+  <si>
+    <t>Créer playbooks Ansible pour recolter et envoyer les journaux Linux au serveur Splunk</t>
+  </si>
+  <si>
+    <t>Créer playbooks Ansible pour recolter et envoyer les journaux Windows au serveur Splunk</t>
+  </si>
+  <si>
+    <t>Définir les exigences pour Auditd</t>
+  </si>
+  <si>
+    <t>Définir les exigences pour Sysmon</t>
+  </si>
+  <si>
+    <t>Créer un playbook Ansible qui installe Auditd sur le serveur Linux</t>
+  </si>
+  <si>
+    <t>Créer un playbook Ansible qui configure Auditd pour journaliser les événements pertinents</t>
+  </si>
+  <si>
+    <t>Tester la configuration de Auditd</t>
+  </si>
+  <si>
+    <t>Créer un playbook Ansible pour envoyer les journaux Auditd à notre serveur Splunk</t>
+  </si>
+  <si>
+    <t>Créer un playbook Ansible qui installe Sysmon sur le serveur Windows</t>
+  </si>
+  <si>
+    <t>Créer un playbook Ansible qui configure Sysmon pour journaliser les événements pertinents</t>
+  </si>
+  <si>
+    <t>Tester la configuration de Sysmon</t>
+  </si>
+  <si>
+    <t>Créer des playbooks Ansible pour envoyer les journaux sysmon à notre serveur Splunk</t>
+  </si>
+  <si>
+    <t>Configurer le serveur Splunk pour recevoir les logs des deux machines</t>
+  </si>
+  <si>
+    <t>Tester et vérifier le bon envoi de logs à Splunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier les événements à surveiller dans Splunk </t>
+  </si>
+  <si>
+    <t>Identifier les règles d'alerte pour ces événements</t>
+  </si>
+  <si>
+    <t>Créer des playbooks Ansible pour configurer les règles et alertes dans Splunk</t>
+  </si>
+  <si>
+    <t>Tester les règles et alertes</t>
+  </si>
+  <si>
+    <t>Réviser et ajuster les règles et alertes existantes si nécessaire</t>
+  </si>
+  <si>
+    <t>Identifier les attaques à simuler pour tester les alertes Splunk</t>
+  </si>
+  <si>
+    <t>Concevoir des scénarios d'attaque</t>
+  </si>
+  <si>
+    <t>Configurer les outils nécessaires pour simuler les attaques</t>
+  </si>
+  <si>
+    <t>Lancer les attaques pour tester les alertes Splunk</t>
+  </si>
+  <si>
+    <t>Évaluer les résultats des tests et ajuster les règles et alertes si nécessaire</t>
+  </si>
+  <si>
+    <t>Mise en place de plans d'alertes Splunk pour mieux cibler les faiblesses de notre infrastructure.</t>
+  </si>
+  <si>
+    <t>Vérification de la mise en place des plans d'action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier qu'il est possible de retrouver et comprendre les attaques qui ont eu lieu sur notre infra. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +281,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,55 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
@@ -318,13 +315,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -490,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -510,21 +500,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,168 +661,1271 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="234">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2528,62 +3606,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB1F85B-E77C-418D-A18E-5DA78BB972D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2883,16 +3905,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="13" width="5.44140625" customWidth="1"/>
     <col min="14" max="14" width="5.5546875" customWidth="1"/>
@@ -2903,829 +3925,1979 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>33</v>
+      <c r="A1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="A2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O3" s="18"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
+      <c r="D4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
     </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
-      <c r="B5" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="35"/>
+      <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="35" t="s">
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="24" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="24" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="35"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="L11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35" t="s">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="E12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="35"/>
-    </row>
-    <row r="12" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="35" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="35" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="J14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="24"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="18"/>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="35" t="s">
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="35"/>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="R15" s="18"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="O16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="O17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="35"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
     </row>
-    <row r="17" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-    </row>
-    <row r="18" spans="1:18" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
+    <row r="18" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
+      <c r="B19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="L19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="24" t="s">
+    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="18"/>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="24" t="s">
+      <c r="C34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="L34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35" t="s">
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="O35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35" t="s">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="35" t="s">
+      <c r="O36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35" t="s">
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="O37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="24" t="s">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="G38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="24" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="G39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="35"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+    <row r="40" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="18"/>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35" t="s">
+    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="24" t="s">
+      <c r="E41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="L41" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35" t="s">
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="Q42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35" t="s">
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="Q43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R25" s="35"/>
+      <c r="R43" s="18"/>
     </row>
-    <row r="26" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="O26" s="46"/>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="18"/>
     </row>
-    <row r="27" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+    <row r="45" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="J45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+    </row>
+    <row r="47" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+    </row>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R54" s="18"/>
+    </row>
+    <row r="55" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+    </row>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="O59" s="29"/>
+    </row>
+    <row r="60" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C60" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O27" s="46"/>
+      <c r="O60" s="29"/>
     </row>
-    <row r="28" spans="1:18" s="23" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+    <row r="61" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B61" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="46"/>
+      <c r="O61" s="29"/>
     </row>
-    <row r="29" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="29" t="s">
+    <row r="62" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B62" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="46"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="29"/>
     </row>
-    <row r="30" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+    <row r="63" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B63" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="O30" s="1"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="O63" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="O31" s="1"/>
+    <row r="64" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O64" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O32" s="1"/>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3734,8 +5906,8 @@
     <mergeCell ref="N4:R4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E20:R20 D5:R19 E24:R24 D25:R25 D21:R23" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$A$27:$A$30</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="E53:R53 D58:R58 E57:R57 D54:R56 D5:R52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$A$60:$A$63</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3745,7 +5917,106 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="319" operator="containsText" id="{9706F3BE-06D1-4409-BBFE-EA96A1D0EF31}">
+          <x14:cfRule type="containsText" priority="271" operator="containsText" id="{94D81BAB-62BE-482D-B633-BBCEE750775C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="272" operator="containsText" id="{B93585C9-316B-498B-9F2E-CBD3E684FDD7}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D11)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="273" operator="containsText" id="{EB213411-03F8-4DA9-BE8E-016387509A90}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D11)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="274" operator="containsText" id="{DE187680-7A84-4705-82E6-7A56BCC87322}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D11)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="275" operator="containsText" id="{6970B42A-A102-4676-9381-2D01698328A5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D11)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="276" operator="containsText" id="{B332D143-148E-47A4-AE4F-D7C370E7DF9C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D11:E11 D15:E15 F17:G17 D18:R52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="355" operator="containsText" id="{82D876D4-E2E9-45CB-9781-C7BF970D1D3F}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,D5)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
@@ -3761,9 +6032,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="320" operator="containsText" id="{4DC73053-EBD1-4ECE-A384-6E0F42790FB6}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D5)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="356" operator="containsText" id="{8699AF83-F071-46F5-9AEE-107DBC1FD736}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D5)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3777,9 +6048,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="321" operator="containsText" id="{4ED35D99-0DF7-4406-B42A-5C1F7BBED4B1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,D5)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="357" operator="containsText" id="{757A0196-A289-498D-9291-2B46DD72DE23}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D5)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3793,9 +6064,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="322" operator="containsText" id="{8DA62EB6-D5DE-4895-84A7-412A0F0F24CA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D5)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="358" operator="containsText" id="{62447D4F-5AC9-4C02-824F-E0F28B751732}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D5)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3809,9 +6080,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="323" operator="containsText" id="{00608CF9-EFEC-4933-9474-91AD6557E6C1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D5)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="359" operator="containsText" id="{4F94B954-A5DB-410E-9A73-1027AA6F7440}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D5)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3825,7 +6096,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="324" operator="containsText" id="{256736C3-74D6-4F8C-83AB-EA334CDB5797}">
+          <x14:cfRule type="containsText" priority="360" operator="containsText" id="{6A084D83-71E6-44E4-8DB0-4FCBC6989293}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,D5)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
@@ -3841,11 +6112,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H25:I25 M25:N25 D22:R22 R25 D5:R9 D19:R19 D11:R17</xm:sqref>
+          <xm:sqref>D5:R10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="277" operator="containsText" id="{8ED3752F-FCB9-4ADA-B26F-14599E59C744}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E20)))</xm:f>
+          <x14:cfRule type="containsText" priority="343" operator="containsText" id="{8E2BFBFE-A333-40A5-96C1-81F9568425E6}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F17)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -3860,9 +6131,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="278" operator="containsText" id="{209650ED-7198-40CE-A8E1-DE97C5EE54C8}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,E20)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="344" operator="containsText" id="{92D41420-A2F4-42F6-8F11-B4BB54146A7B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,F17)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3876,9 +6147,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="279" operator="containsText" id="{B8B734B4-2A81-4718-B3A9-BABE7A0F7DF7}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,E20)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="345" operator="containsText" id="{A1020516-E2CA-483D-AC2E-81506E82C7C4}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,F17)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3892,9 +6163,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="280" operator="containsText" id="{D61A174A-5D79-4551-AF71-FECF3BDBC7E1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,E20)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="346" operator="containsText" id="{9E4C44F9-CD1F-4B6E-A089-30DB8E788466}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,F17)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3908,9 +6179,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="281" operator="containsText" id="{ADFE7C42-63A8-431D-9819-DCB2D8893B80}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,E20)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="347" operator="containsText" id="{D6446F6D-A9C3-457B-910E-A48D73F9A85B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,F17)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3924,8 +6195,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="282" operator="containsText" id="{BBC7E1CA-E110-4F72-97B2-F085DDDEAAB8}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E20)))</xm:f>
+          <x14:cfRule type="containsText" priority="348" operator="containsText" id="{7F57DA26-026C-46D1-BC07-EFC6445DC409}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F17)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -3940,11 +6211,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H21 K21:M21 M23 E20:R20 P21:R21 R23</xm:sqref>
+          <xm:sqref>F17:J17 M17 R17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="271" operator="containsText" id="{4A4F05CF-FE5B-40C8-A87C-E47C0F1D37F0}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D21)))</xm:f>
+          <x14:cfRule type="containsText" priority="325" operator="containsText" id="{ACC0CC5D-A948-4349-A9BB-6B57172D1BBC}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D54)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -3959,9 +6230,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="272" operator="containsText" id="{372836F5-D3F5-4EC5-A2FF-23DBF8CD6933}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D21)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="326" operator="containsText" id="{DD807A6D-D8EB-44ED-BC6B-96A9E60A7498}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D54)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3975,9 +6246,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="273" operator="containsText" id="{75FDAB6E-0B02-4FBE-94B0-38BE749839E9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,D21)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="327" operator="containsText" id="{F9549B51-283A-4A97-A0F2-11BD34FE40DE}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D54)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3991,9 +6262,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="274" operator="containsText" id="{6B94F7E5-1551-4329-ABEC-E5022834F7E5}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D21)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="328" operator="containsText" id="{284F70C1-224E-4D77-8820-73AC1D77E822}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D54)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4007,9 +6278,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="275" operator="containsText" id="{E851288A-EB41-4598-9CDA-0ADAB7F0773D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D21)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="329" operator="containsText" id="{37FA26E4-6060-41AA-988A-514DA169F101}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D54)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4023,8 +6294,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="276" operator="containsText" id="{6685B0AE-3229-41D1-962C-2BA55FCA5FCA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D21)))</xm:f>
+          <x14:cfRule type="containsText" priority="330" operator="containsText" id="{7B5C4A96-227A-419D-9552-54AE43C5F20E}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D54)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4039,11 +6310,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D21:E21</xm:sqref>
+          <xm:sqref>D56:R56 D54:M55 R54:R55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="259" operator="containsText" id="{1A76F9E1-E213-4E99-8985-8F09A87E28DA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F23)))</xm:f>
+          <x14:cfRule type="containsText" priority="583" operator="containsText" id="{8ED3752F-FCB9-4ADA-B26F-14599E59C744}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E53)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4058,9 +6329,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="260" operator="containsText" id="{1602C306-A240-4EBC-B18E-0E068EFD4D59}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,F23)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="584" operator="containsText" id="{209650ED-7198-40CE-A8E1-DE97C5EE54C8}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,E53)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4074,9 +6345,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="261" operator="containsText" id="{A3C530CE-AD7F-4230-A513-AD7AF13B9C2D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,F23)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="585" operator="containsText" id="{B8B734B4-2A81-4718-B3A9-BABE7A0F7DF7}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,E53)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4090,9 +6361,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="262" operator="containsText" id="{766E426A-FA60-4974-822D-9D11A4638E64}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,F23)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="586" operator="containsText" id="{D61A174A-5D79-4551-AF71-FECF3BDBC7E1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,E53)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4106,9 +6377,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="263" operator="containsText" id="{3B7AED7B-D321-448D-97A2-06144EE47266}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,F23)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="587" operator="containsText" id="{ADFE7C42-63A8-431D-9819-DCB2D8893B80}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,E53)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4122,8 +6393,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="264" operator="containsText" id="{33076B74-A455-4206-9777-8B53139AC550}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F23)))</xm:f>
+          <x14:cfRule type="containsText" priority="588" operator="containsText" id="{BBC7E1CA-E110-4F72-97B2-F085DDDEAAB8}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E53)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4138,11 +6409,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F23:J23</xm:sqref>
+          <xm:sqref>E53:R53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="253" operator="containsText" id="{45EF5946-8947-4483-9077-4F5F257885CF}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E24)))</xm:f>
+          <x14:cfRule type="containsText" priority="559" operator="containsText" id="{45EF5946-8947-4483-9077-4F5F257885CF}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E57)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4157,9 +6428,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="254" operator="containsText" id="{65C4960D-2D24-4CDF-8551-B252372DAFF9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,E24)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="560" operator="containsText" id="{65C4960D-2D24-4CDF-8551-B252372DAFF9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,E57)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4173,9 +6444,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="255" operator="containsText" id="{2CF0E1CC-4DA9-4C7F-8D87-39150CF30409}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,E24)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="561" operator="containsText" id="{2CF0E1CC-4DA9-4C7F-8D87-39150CF30409}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,E57)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4189,9 +6460,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="256" operator="containsText" id="{CEB99440-645D-4341-865C-214CD990E070}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,E24)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="562" operator="containsText" id="{CEB99440-645D-4341-865C-214CD990E070}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,E57)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4205,9 +6476,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="257" operator="containsText" id="{6BF6D0EF-8F2B-4253-BA31-38CD7489842D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,E24)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="563" operator="containsText" id="{6BF6D0EF-8F2B-4253-BA31-38CD7489842D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,E57)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4221,8 +6492,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="258" operator="containsText" id="{F93EC8AF-D78D-46F8-9B70-3F57EDE809BB}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,E24)))</xm:f>
+          <x14:cfRule type="containsText" priority="564" operator="containsText" id="{F93EC8AF-D78D-46F8-9B70-3F57EDE809BB}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E57)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4237,11 +6508,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E24:R24</xm:sqref>
+          <xm:sqref>E57:R57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="217" operator="containsText" id="{4ED99E5E-00C5-4957-A5F5-3CC7A9C51A5C}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F21)))</xm:f>
+          <x14:cfRule type="containsText" priority="475" operator="containsText" id="{A17D782B-E724-4BB3-A30B-8DBF0A0FB918}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4256,176 +6527,80 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="218" operator="containsText" id="{7F2F8D10-92B6-47A8-BC03-31178291E51A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,F21)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="219" operator="containsText" id="{618AABA8-C1FC-4801-BCC8-0E7B751503DF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,F21)))</xm:f>
-            <xm:f>$A$27</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="220" operator="containsText" id="{00A8E1B1-8EDC-470B-8297-0B130527D523}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,F21)))</xm:f>
-            <xm:f>$A$29</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="221" operator="containsText" id="{C175189F-87AE-40E0-B2FC-150971EF7DCA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,F21)))</xm:f>
-            <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="7" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="222" operator="containsText" id="{350D8477-3010-458F-9D59-A8FF9DC73BD5}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F21)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F21:G21</xm:sqref>
+          <xm:sqref>D58:G58 R11:R16 M11:O15 H16:J16 F15:J15 H13:H14 M16 F11:J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="211" operator="containsText" id="{552CD931-CD31-4F27-98EA-E7F739343368}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D23)))</xm:f>
+          <x14:cfRule type="containsText" priority="476" operator="containsText" id="{F02ACAEB-F181-45B5-A8C8-B376BB149F7F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D11)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="477" operator="containsText" id="{0658877D-38ED-41FF-B3FA-220CA93DC06D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D11)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="478" operator="containsText" id="{797A8AA2-6E10-4EFB-A028-F679855A2588}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D11)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="479" operator="containsText" id="{9F6DFE7A-3D7F-4F12-8E64-1CE5C7A5719F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D11)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="480" operator="containsText" id="{52B1A668-8B68-4B04-9D88-8FBD406FCECD}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="6" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="212" operator="containsText" id="{938B01A1-148A-4857-9C76-ACBBA6AFAE37}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D23)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="213" operator="containsText" id="{47A7D313-33DD-415A-8F0E-27ED44062818}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,D23)))</xm:f>
-            <xm:f>$A$27</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="214" operator="containsText" id="{CB5CA49B-7D57-4081-B085-C2FCDD766EA2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D23)))</xm:f>
-            <xm:f>$A$29</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="215" operator="containsText" id="{CCDDA52A-29B7-4D96-AEE5-546E50CAB718}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D23)))</xm:f>
-            <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="7" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="216" operator="containsText" id="{DE04A0FE-FC1F-4967-9450-DA89B28179B1}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D23)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="0"/>
               </font>
               <fill>
@@ -4435,11 +6610,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D23:E23</xm:sqref>
+          <xm:sqref>D58:I58 R11:R16 M11:O15 H16:J16 F15:J15 H13:H14 M16 F11:J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="205" operator="containsText" id="{7DC08827-3031-4390-AC1B-123EA4F0066E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,I21)))</xm:f>
+          <x14:cfRule type="containsText" priority="307" operator="containsText" id="{E8A0B34A-409C-4FE1-8905-C5E394614643}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,H58)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4454,176 +6629,80 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="206" operator="containsText" id="{CCFBCCE3-5F06-4228-824A-328113905E6C}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,I21)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="207" operator="containsText" id="{45FFABD4-24BC-4331-B422-5EE3D0251441}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,I21)))</xm:f>
-            <xm:f>$A$27</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="208" operator="containsText" id="{03BC2891-2970-4E7E-AE77-166FFE02C9E2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,I21)))</xm:f>
-            <xm:f>$A$29</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="209" operator="containsText" id="{E9833BFD-562F-456C-9921-C1063C6E3CC9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,I21)))</xm:f>
-            <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="7" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="210" operator="containsText" id="{7A96EE79-3CC3-4324-B1F4-F94B6CA0B540}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,I21)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I21:J21</xm:sqref>
+          <xm:sqref>H58:R58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="199" operator="containsText" id="{4B1D6A2D-45C0-4C26-897C-4C5737C2B820}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K23)))</xm:f>
+          <x14:cfRule type="containsText" priority="308" operator="containsText" id="{645476D1-5C4D-47F2-901D-F287379B26C3}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,J58)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="309" operator="containsText" id="{BFD633D8-F1C8-4779-9459-CECC8ADBD203}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,J58)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="310" operator="containsText" id="{418AE355-34D1-4D20-8735-ACBC6166781D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,J58)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="311" operator="containsText" id="{F63D623C-C6BE-49BF-9396-3472FF5E7EC6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,J58)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="312" operator="containsText" id="{5070FD29-98FC-4B2D-9AE7-D25D64DC2358}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,J58)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="6" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="200" operator="containsText" id="{F0FFBDFF-A742-420A-8EE8-4D5C71459784}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,K23)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="201" operator="containsText" id="{A9478BE6-9797-459D-B5A3-DC65C30CCB21}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,K23)))</xm:f>
-            <xm:f>$A$27</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="202" operator="containsText" id="{B5897AB5-DDD7-47DA-A636-16491EAA0CEA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,K23)))</xm:f>
-            <xm:f>$A$29</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="203" operator="containsText" id="{77BE18D4-ED0B-4B17-868E-22D52A05E0DF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,K23)))</xm:f>
-            <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="7" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="204" operator="containsText" id="{FFA469F9-862B-433A-96F8-79B8E787E7AA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K23)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
                 <color theme="0"/>
               </font>
               <fill>
@@ -4633,11 +6712,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K23:L23</xm:sqref>
+          <xm:sqref>J58:R58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="193" operator="containsText" id="{02C498C6-B7D2-4B2F-982C-20DC8215B9E3}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D25)))</xm:f>
+          <x14:cfRule type="containsText" priority="235" operator="containsText" id="{64EDE39F-839D-4E14-BC60-8E6C81D40743}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4652,9 +6731,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="194" operator="containsText" id="{EDC66636-530B-414B-98E0-F684F2C1EF87}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="236" operator="containsText" id="{E34CF92B-4017-4B57-9BE8-BDED0CFFB7D1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K11)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4668,9 +6747,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="195" operator="containsText" id="{79E08907-C4B5-4B48-BFB0-A874377ACE8F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,D25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="237" operator="containsText" id="{BFAC0892-CB10-450E-8590-A8634A51D83A}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K11)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4684,9 +6763,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="196" operator="containsText" id="{86188BB9-1D47-4D19-A764-30396278B025}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="238" operator="containsText" id="{5487FFD5-F3F3-4001-9C1B-B0F192BBC643}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K11)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4700,9 +6779,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="197" operator="containsText" id="{85354E67-1537-4CB3-96EF-D71FB7F4F974}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="239" operator="containsText" id="{F2A526EA-0966-4C3D-9368-67AE60D3865E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K11)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4716,8 +6795,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="198" operator="containsText" id="{C5ED2D03-9583-4B18-8853-72F541C8A99E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D25)))</xm:f>
+          <x14:cfRule type="containsText" priority="240" operator="containsText" id="{589EC1F0-2E3E-486D-9C75-285D8BAC4D0C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4732,11 +6811,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D25:E25</xm:sqref>
+          <xm:sqref>K11:L11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="187" operator="containsText" id="{DF022512-57B8-40E0-876B-1BF319FD2A38}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,J25)))</xm:f>
+          <x14:cfRule type="containsText" priority="229" operator="containsText" id="{90088106-7643-480B-93F8-B2ECAF74C847}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4751,9 +6830,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="188" operator="containsText" id="{7FDECD9B-B4E3-4526-87E0-9C5184971F56}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,J25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="230" operator="containsText" id="{D4E11505-D690-4867-9F9D-8D4B406112F0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P11)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4767,9 +6846,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="189" operator="containsText" id="{4B0F734F-1BDF-47D8-A954-AF32C76FD97E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,J25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="231" operator="containsText" id="{E6C87E8A-947A-4561-AC9E-53634B59A492}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P11)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4783,9 +6862,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{594FB8F7-06B8-4342-B640-74A466D0411E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,J25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="232" operator="containsText" id="{74F91C89-01E3-46A6-81DE-829CFD0BCCD9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P11)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4799,9 +6878,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="191" operator="containsText" id="{4FE49593-E4A8-404F-8C2C-DA721A521A6A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,J25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="233" operator="containsText" id="{7FF3E47C-2CC3-48AC-A899-0603EA3046C5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P11)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4815,8 +6894,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="192" operator="containsText" id="{E51359C2-A02D-4A5E-A4D6-599962FF6914}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,J25)))</xm:f>
+          <x14:cfRule type="containsText" priority="234" operator="containsText" id="{1CA6D465-0B8D-4E06-876A-00ABCDD0DBD6}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4831,11 +6910,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J25</xm:sqref>
+          <xm:sqref>P11:Q11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="181" operator="containsText" id="{C74EA167-4D1C-4504-B8FE-232F4F30BBAE}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F25)))</xm:f>
+          <x14:cfRule type="containsText" priority="217" operator="containsText" id="{A7E99900-83CB-4575-A849-623C049C8EFD}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P12)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4850,9 +6929,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="182" operator="containsText" id="{34E193BB-BD91-4F38-BEFA-65EE46A13227}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,F25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="218" operator="containsText" id="{339162B3-D126-49C2-BA69-DC1E8E877C12}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P12)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4866,9 +6945,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="183" operator="containsText" id="{FF84A5FD-85EA-4D77-8849-3163DBA399E5}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,F25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="219" operator="containsText" id="{BF168B74-0A04-4508-B2D6-E933B37EE0DA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P12)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4882,9 +6961,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="184" operator="containsText" id="{2780C6A4-DA8C-4456-8829-3CB0368DB3BF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,F25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="220" operator="containsText" id="{7F9F4BB7-561E-498D-B465-EE50DE6EA9FC}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P12)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4898,9 +6977,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="185" operator="containsText" id="{295AC5CA-68FE-4FDC-A99B-8A933BF14238}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,F25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="221" operator="containsText" id="{8A5FFEC2-11A3-4B6E-AF11-6F6A5AC9BDB0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P12)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4914,8 +6993,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="186" operator="containsText" id="{26AB4A0A-672C-49B7-A673-E14232C2F9BA}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F25)))</xm:f>
+          <x14:cfRule type="containsText" priority="222" operator="containsText" id="{D71A8FDA-4199-41E0-B78D-FC3CC7859A72}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P12)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4930,11 +7009,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F25</xm:sqref>
+          <xm:sqref>P12:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="175" operator="containsText" id="{190BF9BD-996A-464D-941C-F0C59987D798}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K25)))</xm:f>
+          <x14:cfRule type="containsText" priority="205" operator="containsText" id="{9D08542D-FDAD-4656-BBE5-83FFCEFE7849}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P13)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -4949,9 +7028,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="176" operator="containsText" id="{C9849531-F5BF-40BF-94E8-FDCC44070947}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,K25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="206" operator="containsText" id="{A1AAC944-7688-48E2-BA0E-91A31C8EF42C}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P13)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4965,9 +7044,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="177" operator="containsText" id="{3C7E2CDD-74E6-49A2-A29C-57FE584A7E22}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,K25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="207" operator="containsText" id="{EE5972AD-8AB6-4EC5-885C-5E4CEEDB8BE0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P13)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4981,9 +7060,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="178" operator="containsText" id="{B92E3912-8217-4B48-B718-9EE6AFCD81F1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,K25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="208" operator="containsText" id="{EEAF0539-FF7A-4001-9250-BBB786C41DE2}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P13)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -4997,9 +7076,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="179" operator="containsText" id="{3A8BB25E-B314-4E45-A748-9EE79049836A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,K25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="209" operator="containsText" id="{59F6C7BD-6C6A-48E5-9004-AFF9C5F4674D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P13)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5013,8 +7092,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="180" operator="containsText" id="{1781BF7F-4BF0-42F4-8D68-1EB85D698276}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,K25)))</xm:f>
+          <x14:cfRule type="containsText" priority="210" operator="containsText" id="{657E21A4-CA45-46A6-835B-C96617C906D1}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P13)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5029,11 +7108,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K25</xm:sqref>
+          <xm:sqref>P13:Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="169" operator="containsText" id="{A17D782B-E724-4BB3-A30B-8DBF0A0FB918}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,G25)))</xm:f>
+          <x14:cfRule type="containsText" priority="187" operator="containsText" id="{41C2A5E3-1C3D-402A-9B74-267A5E47156B}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,I13)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5048,9 +7127,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="170" operator="containsText" id="{F02ACAEB-F181-45B5-A8C8-B376BB149F7F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,G25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="188" operator="containsText" id="{A34C105D-4D71-4823-AD94-2A24802A0ECE}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,I13)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5064,9 +7143,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="171" operator="containsText" id="{0658877D-38ED-41FF-B3FA-220CA93DC06D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,G25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="189" operator="containsText" id="{601FF2CC-8A47-434C-BE80-5A6B4BDAAE9D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,I13)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5080,9 +7159,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="172" operator="containsText" id="{797A8AA2-6E10-4EFB-A028-F679855A2588}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,G25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="190" operator="containsText" id="{C19EC37F-F2DE-4E35-BDCB-8F2851CEE9C9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,I13)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5096,9 +7175,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="173" operator="containsText" id="{9F6DFE7A-3D7F-4F12-8E64-1CE5C7A5719F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,G25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="191" operator="containsText" id="{434CF794-96B8-42C0-A3A9-23BF89899C82}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,I13)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5112,8 +7191,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="174" operator="containsText" id="{52B1A668-8B68-4B04-9D88-8FBD406FCECD}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,G25)))</xm:f>
+          <x14:cfRule type="containsText" priority="192" operator="containsText" id="{1937263C-5B7B-4C12-ACBE-61FE23F00494}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,I13)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5128,11 +7207,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G25</xm:sqref>
+          <xm:sqref>I13:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="163" operator="containsText" id="{C6BF6126-3665-4C56-86A0-1C1D5162DF89}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,L25)))</xm:f>
+          <x14:cfRule type="containsText" priority="175" operator="containsText" id="{EC540583-B6CF-4C40-81F8-6A74ED14BFD1}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K15)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5147,9 +7226,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="164" operator="containsText" id="{A5958BF3-EBD3-46D0-9AF0-9BAADDC737A2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,L25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="176" operator="containsText" id="{1BCBCD85-5C4D-43DF-A7F7-D06850D72814}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K15)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5163,9 +7242,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="165" operator="containsText" id="{1599242A-BCF2-45AF-9D0F-E908A6839D76}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,L25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="177" operator="containsText" id="{86CD2B8E-A6B5-4B94-B3C0-55315D8AC312}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K15)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5179,9 +7258,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="166" operator="containsText" id="{7D33F1A1-23F1-4EC0-9D7F-315CDA8381FA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,L25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="178" operator="containsText" id="{EE229536-23E1-4EA9-A840-466D545E2549}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K15)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5195,9 +7274,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="167" operator="containsText" id="{2AC32AB8-5FF5-4A5B-BA9B-82D9E80F173B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,L25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="179" operator="containsText" id="{8EF92C6E-06B3-4B1D-90AB-2F606FEF1FE6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K15)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5211,8 +7290,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="168" operator="containsText" id="{D6994F26-A7C7-4312-A5BD-451110619FDC}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,L25)))</xm:f>
+          <x14:cfRule type="containsText" priority="180" operator="containsText" id="{FBBF49D2-1865-4F65-9566-60436F21BA45}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K15)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5227,11 +7306,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L25</xm:sqref>
+          <xm:sqref>K15:L15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{82D876D4-E2E9-45CB-9781-C7BF970D1D3F}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D10)))</xm:f>
+          <x14:cfRule type="containsText" priority="169" operator="containsText" id="{F97E1945-DF1E-4D34-A352-A991F2DA9F2D}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P15)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5246,9 +7325,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{8699AF83-F071-46F5-9AEE-107DBC1FD736}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D10)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="170" operator="containsText" id="{E95C1BFB-A813-48AB-B6EA-3998A947FCCE}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P15)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5262,9 +7341,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{757A0196-A289-498D-9291-2B46DD72DE23}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,D10)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="171" operator="containsText" id="{A96EF1D2-7CF3-4BCA-8A39-26920104A52B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P15)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5278,9 +7357,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{62447D4F-5AC9-4C02-824F-E0F28B751732}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D10)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="172" operator="containsText" id="{93BAA52B-0969-4808-8A99-275A35AD8BFF}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P15)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5294,9 +7373,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{4F94B954-A5DB-410E-9A73-1027AA6F7440}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D10)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="173" operator="containsText" id="{FA8E3DBA-BFC7-4D61-904D-4B5C5D571C7B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P15)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5310,8 +7389,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{6A084D83-71E6-44E4-8DB0-4FCBC6989293}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D10)))</xm:f>
+          <x14:cfRule type="containsText" priority="174" operator="containsText" id="{A004CF39-9C62-4C26-998A-532267C86324}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P15)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5326,11 +7405,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D10:R10</xm:sqref>
+          <xm:sqref>P15:Q15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{8E2BFBFE-A333-40A5-96C1-81F9568425E6}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D18)))</xm:f>
+          <x14:cfRule type="containsText" priority="163" operator="containsText" id="{F6487A49-1675-467D-949C-1C9DE6E12CC9}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P14)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5345,9 +7424,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{92D41420-A2F4-42F6-8F11-B4BB54146A7B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,D18)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="164" operator="containsText" id="{1ACD623B-C9B9-4A3A-8633-7355B1CE7D64}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P14)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5361,9 +7440,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{A1020516-E2CA-483D-AC2E-81506E82C7C4}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,D18)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="165" operator="containsText" id="{79C4D1AF-7462-4491-9E45-D959B41E96C3}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P14)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5377,9 +7456,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{9E4C44F9-CD1F-4B6E-A089-30DB8E788466}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,D18)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="166" operator="containsText" id="{46C1F9BA-1209-44E5-89A0-2F1A70EF0116}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P14)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5393,9 +7472,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{D6446F6D-A9C3-457B-910E-A48D73F9A85B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,D18)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="167" operator="containsText" id="{42ED7B69-0359-4671-8927-ED5E73DAE6DB}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P14)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5409,8 +7488,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{7F57DA26-026C-46D1-BC07-EFC6445DC409}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D18)))</xm:f>
+          <x14:cfRule type="containsText" priority="168" operator="containsText" id="{E3609AD9-8896-4161-A38C-7E639337C38C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P14)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5425,11 +7504,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D18:R18</xm:sqref>
+          <xm:sqref>P14:Q14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{1EBED33D-BD17-48CD-90D4-D63191004FC0}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N23)))</xm:f>
+          <x14:cfRule type="containsText" priority="157" operator="containsText" id="{3F854771-A112-4757-8C51-37430A7A2B37}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D12)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5444,9 +7523,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{56E95095-ED59-460C-A81C-82AB460BBCF4}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,N23)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="158" operator="containsText" id="{D8424EFE-1AB1-41D3-BBFF-D141A3D9A5B4}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D12)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5460,9 +7539,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{9715CB12-12AF-4BA7-91A6-4411EDBA431E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,N23)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="159" operator="containsText" id="{3DF68A02-3E5D-4DFE-AA36-498FB48617CA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D12)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5476,9 +7555,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{2EBECC3C-AF8E-494B-B9C7-769392E4441E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,N23)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="160" operator="containsText" id="{B28EDA72-2A83-4596-BEC6-2C908257E95B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D12)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5492,9 +7571,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{9F32A862-838F-4823-8F84-3054E012737F}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,N23)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="161" operator="containsText" id="{ADC00027-D231-43FD-B108-60AD639C0F9C}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D12)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5508,8 +7587,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{C0F60F26-74B5-4D2F-9C6A-0780F037CE50}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N23)))</xm:f>
+          <x14:cfRule type="containsText" priority="162" operator="containsText" id="{F026DAC4-D583-4ED6-A1F9-A2233BC5A729}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D12)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5524,11 +7603,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N23:O23</xm:sqref>
+          <xm:sqref>D12:E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{3C6A8B44-1D07-4FD6-91B7-B67242F5F914}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N21)))</xm:f>
+          <x14:cfRule type="containsText" priority="139" operator="containsText" id="{FB3201E6-0D76-4883-A32C-0AE1E8E63A8D}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K16)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5543,9 +7622,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{8401A2BF-AD62-46DA-89AC-3A180170F1AE}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,N21)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="140" operator="containsText" id="{8396C12B-93CC-4B9C-B4E8-FFCFAB11D23D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K16)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5559,9 +7638,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{720EE669-A652-45D7-841A-C22B00C81194}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,N21)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="141" operator="containsText" id="{E1524906-B8CD-4D93-9A02-5412CF121AE5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K16)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5575,9 +7654,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{988FB7DD-C37E-4960-879E-1362023E1DEA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,N21)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="142" operator="containsText" id="{17140645-17D9-4AE6-9AE7-3B4D3E8CA330}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K16)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5591,9 +7670,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{0D036C3E-2E3B-4DF2-9250-D215843E3DAD}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,N21)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="143" operator="containsText" id="{608477FF-56B9-425E-93DB-0448DC3F5E77}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K16)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5607,8 +7686,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{E9F76617-A4E6-4CA8-ABE2-3979D24B8045}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,N21)))</xm:f>
+          <x14:cfRule type="containsText" priority="144" operator="containsText" id="{34BE4BE0-3056-4540-99E3-D9BFD0D1C596}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K16)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5623,11 +7702,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N21:O21</xm:sqref>
+          <xm:sqref>K16:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{ACC0CC5D-A948-4349-A9BB-6B57172D1BBC}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P23)))</xm:f>
+          <x14:cfRule type="containsText" priority="133" operator="containsText" id="{8FE79E77-61AC-4FD1-9A2C-8CB72DD1C781}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K17)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5642,9 +7721,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{DD807A6D-D8EB-44ED-BC6B-96A9E60A7498}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,P23)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="134" operator="containsText" id="{86949353-1E9D-41A7-A4CF-138DD284BA29}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K17)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5658,9 +7737,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F9549B51-283A-4A97-A0F2-11BD34FE40DE}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,P23)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="135" operator="containsText" id="{5FE9BEE8-123A-4230-BE0D-B05924DADA34}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K17)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5674,9 +7753,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{284F70C1-224E-4D77-8820-73AC1D77E822}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,P23)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="136" operator="containsText" id="{0D48E79D-63FC-4BE0-8376-BAB2DDB48B8E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K17)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5690,9 +7769,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{37FA26E4-6060-41AA-988A-514DA169F101}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,P23)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="137" operator="containsText" id="{DEDF2A8B-8884-4825-A789-90001380BF3C}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K17)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5706,8 +7785,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{7B5C4A96-227A-419D-9552-54AE43C5F20E}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P23)))</xm:f>
+          <x14:cfRule type="containsText" priority="138" operator="containsText" id="{6D692344-DD6B-459A-83F4-06CDB99DFDE8}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K17)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5722,11 +7801,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>P23:Q23</xm:sqref>
+          <xm:sqref>K17:L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{D25F6104-7B0F-4468-A4ED-96DCB57BDD22}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,O25)))</xm:f>
+          <x14:cfRule type="containsText" priority="127" operator="containsText" id="{0CE43C38-692E-49BB-9AEF-1B22E78CA7CF}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F16)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5741,9 +7820,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{C372DD8E-7826-40B2-9D28-0CF9803C493D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,O25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <x14:cfRule type="containsText" priority="128" operator="containsText" id="{2120FE33-BF2A-4E10-9B47-C1AD346872E5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,F16)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5757,9 +7836,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F9411191-C55D-4FA9-A969-2C1870958B95}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,O25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="129" operator="containsText" id="{C66FDE17-ED34-42BF-805D-D500B11771F6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,F16)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5773,9 +7852,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{EA57C70B-FEAF-4F38-BC9F-B8A62528B1D7}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,O25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="130" operator="containsText" id="{0D633E66-1F27-4344-A8EA-4B04B4563757}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,F16)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5789,9 +7868,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{3F2F86EF-4E28-4FFE-8F37-1892D83E882A}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,O25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="131" operator="containsText" id="{3704F180-206F-43A8-8F6C-79161E5D43F2}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,F16)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5805,8 +7884,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{F9B170CC-8EFD-4174-9938-12D2AE123588}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,O25)))</xm:f>
+          <x14:cfRule type="containsText" priority="132" operator="containsText" id="{EAED5B2E-28AE-49EC-90EF-15EE01035D5D}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F16)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5821,11 +7900,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O25</xm:sqref>
+          <xm:sqref>F16:G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{16BB20F0-305A-4E9D-8635-C208C984F81B}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P25)))</xm:f>
+          <x14:cfRule type="containsText" priority="121" operator="containsText" id="{EC07AA1A-D49E-4748-8F0D-EB7D6AB3690C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D16)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -5840,96 +7919,99 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{C646EF8D-4791-4CF5-88A8-1C135D61D13E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,P25)))</xm:f>
-            <xm:f>$A$28</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="5" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{95B8B86D-F436-47F6-9580-152E7195A790}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,P25)))</xm:f>
-            <xm:f>$A$27</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="9" tint="0.79995117038483843"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0E0B8CA3-C767-4D19-8A35-7BDDE308D738}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,P25)))</xm:f>
-            <xm:f>$A$29</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="4" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{BBF4753D-2D88-40F5-9AB8-05493391C677}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,P25)))</xm:f>
-            <xm:f>$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="7" tint="0.79998168889431442"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{C666083B-599E-4C35-B274-2627FBFC63EF}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,P25)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>P25</xm:sqref>
+          <xm:sqref>D16:E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{E8A0B34A-409C-4FE1-8905-C5E394614643}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,Q25)))</xm:f>
+          <x14:cfRule type="containsText" priority="122" operator="containsText" id="{AED1FB42-CCF4-4CE8-ADFF-B12956292CF0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D16)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="123" operator="containsText" id="{1A92586C-E812-47DD-B70B-C8DD93D13AF1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D16)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="124" operator="containsText" id="{E5A4BB2F-96B6-4023-A653-FB79D470BAFA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D16)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="125" operator="containsText" id="{4CEB453A-7E84-4245-B932-E5F82EE423A8}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D16)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="126" operator="containsText" id="{8FA9C044-E6B2-4D65-AEEC-D6A08B059B98}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D16)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D16:E16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="115" operator="containsText" id="{9A537BFD-D6A9-4148-89DF-E7ECA1A81B27}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D17)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
                 <color theme="6" tint="0.79998168889431442"/>
               </font>
               <fill>
@@ -5939,9 +8021,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{645476D1-5C4D-47F2-901D-F287379B26C3}">
-            <xm:f>NOT(ISERROR(SEARCH($A$28,Q25)))</xm:f>
-            <xm:f>$A$28</xm:f>
+          <xm:sqref>D17:E17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="116" operator="containsText" id="{BB272D8E-DAA7-400E-897C-22A415F53768}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D17)))</xm:f>
+            <xm:f>$A$61</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5955,9 +8040,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{BFD633D8-F1C8-4779-9459-CECC8ADBD203}">
-            <xm:f>NOT(ISERROR(SEARCH($A$27,Q25)))</xm:f>
-            <xm:f>$A$27</xm:f>
+          <x14:cfRule type="containsText" priority="117" operator="containsText" id="{35D7CB5D-D3C4-4DA3-86D8-DD4E2073FECF}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D17)))</xm:f>
+            <xm:f>$A$60</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5971,9 +8056,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{418AE355-34D1-4D20-8735-ACBC6166781D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$29,Q25)))</xm:f>
-            <xm:f>$A$29</xm:f>
+          <x14:cfRule type="containsText" priority="118" operator="containsText" id="{F21C5F55-5432-48E3-A5FB-78150BD53ADC}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D17)))</xm:f>
+            <xm:f>$A$62</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -5987,9 +8072,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{F63D623C-C6BE-49BF-9396-3472FF5E7EC6}">
-            <xm:f>NOT(ISERROR(SEARCH($A$30,Q25)))</xm:f>
-            <xm:f>$A$30</xm:f>
+          <x14:cfRule type="containsText" priority="119" operator="containsText" id="{131CCB04-AFA9-4502-872D-401C4C9B4E9C}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D17)))</xm:f>
+            <xm:f>$A$63</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -6003,8 +8088,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{5070FD29-98FC-4B2D-9AE7-D25D64DC2358}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,Q25)))</xm:f>
+          <x14:cfRule type="containsText" priority="120" operator="containsText" id="{778DBD4A-80CB-46F0-92A1-AE2DD5F67794}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D17)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -6019,128 +8104,1612 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q25</xm:sqref>
+          <xm:sqref>D17:E17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="109" operator="containsText" id="{373DFDA9-9597-4951-9976-4B9B9F4ADA85}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D14:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="110" operator="containsText" id="{A3212CC9-615D-48E2-9D90-9B9D12022738}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D14)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="111" operator="containsText" id="{6B774BA5-5354-49A1-A505-E77FB75931F5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D14)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="112" operator="containsText" id="{04428CF1-F237-4E1C-9AC8-A14991B17CC8}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D14)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="113" operator="containsText" id="{C0C66DC0-4F78-46E3-AD28-1EE10CA4FA43}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D14)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="114" operator="containsText" id="{286F7031-CFF6-4C42-BB27-5125452312B6}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D14:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{07C83E36-480C-42B8-8D33-7E67BEAFB24C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D13)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D13:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{AD45E097-4915-44E2-A952-29221851FCF0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,D13)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{8769F635-9151-4F9F-A144-7F948BCD86AA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,D13)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="106" operator="containsText" id="{50CBB6F2-FF12-46FA-9A78-EFD7B8135E8A}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,D13)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{123644E3-0DC9-42A8-B4C5-B2A6BBA0962A}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,D13)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{873F3DD3-F2F3-4F61-B2BB-530325646BE9}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D13)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D13:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{0C9C3F8C-A67B-46A8-B830-6F5BCBAAECFF}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F13)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{529C427E-CD1B-412A-ABED-4160321C2D73}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,F13)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{ED3BA61E-4741-4BE2-97A8-2DFA44B81D51}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,F13)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{79F6CEB3-F778-4BC0-B6E3-4A114456EFA6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,F13)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{AFCFD664-5BBA-4621-A360-017F29DCA0B0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,F13)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="102" operator="containsText" id="{2CD0B053-7694-435E-81DD-57A334E78088}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F13)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F13:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="91" operator="containsText" id="{C919402E-5B95-4595-9DBC-7201A69AB474}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{312F6EB1-E6BD-4655-B1AA-422FAAD15301}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,F14)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{DBED93FF-8343-4696-961C-5C1F2C28CD5C}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,F14)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{914775DE-EEF9-4B62-9961-970C13C38AE9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,F14)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{74261F41-6D59-4E3F-8249-99B9B6633C9F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,F14)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{D518D3AA-ED44-4084-8929-4A19BF37C4E0}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,F14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{629260BB-5151-4A78-A355-FCDA7F88730C}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K13)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K13:L13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{4B8A4604-387A-40A3-8F01-1223E713BB8F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K13)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{3FC81884-E746-466C-BCC3-28CCDA4CECED}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K13)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{B80AAD51-C7B3-48F5-A5B6-E22300563579}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K13)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{8ECCC114-8560-4EDF-9F1B-988DF66F6C10}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K13)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{BD53405A-0606-4556-AD36-726A856BC47F}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K13)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K13:L13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{2E4E181B-481A-462A-A4E2-A5C592621E09}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P16)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P16:Q16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{5D772DB7-6E48-43F3-AB07-F008B52098FD}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P16)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="69" operator="containsText" id="{E891E166-504B-4E92-9CC7-E1C121CA46A5}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P16)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{1FC6822F-3D5B-4398-A25D-26DF7203C50E}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P16)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{B84C0B95-A36C-4D8E-BCB5-B78DC16B763C}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P16)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{15C8B646-4967-4B4B-82F6-97AB626AA44A}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P16)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P16:Q16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{40A579A7-BD4A-4C79-97F9-F5868BAAF993}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P17)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P17:Q17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{ECD24D9C-43F7-47DE-B4A1-2047EEE9D4B0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P17)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{B83601D7-2110-4E34-A123-8C5FDC5DDC42}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P17)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{304DA887-5397-44DA-B5E5-BADBBD3CC741}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P17)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{E4964037-40E2-4F43-8311-C83A50B05577}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P17)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{E8F52594-C8E7-4055-9202-EC34E52AE315}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P17)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P17:Q17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{CD0DAE74-CA8D-4714-AB7D-4FBCF0F542A7}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N16)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{7CC98F0F-7712-4C37-9FA1-EF4C8C3DA760}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,N16)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{6FE358FB-8277-4A97-BEE7-0CA65F6143BF}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,N16)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{C3FB83BF-258E-4C12-8B15-D5094953FBA3}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,N16)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{059EC131-FAE0-4BBB-B372-A2BC6C37D260}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,N16)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{8A59711A-0987-46BA-BF4F-305C83E558A3}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N16)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N16:O16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{EF6122A9-BEB8-4BF6-88E5-F9BE1256CB0A}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N17)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{C53FD5CC-AF54-45AD-98A7-DE912D38BF47}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,N17)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{E134F2C9-EA2D-40B3-8847-768A3985C2C6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,N17)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{7DD630F9-4195-494B-B54E-4169340B54D1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,N17)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{C38A2F3D-C5FB-420D-AA5F-B8736B5DDDBD}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,N17)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{8AB8F03C-BF77-4618-A41E-D164070293F6}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N17)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N17:O17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{FB3FE072-2DB9-4E57-AD37-461019CCCDB0}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K12)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{4FB7C265-40EE-41A9-929F-A38DFEAC7AE8}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K12)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{00B1890B-7C3C-4916-960B-87A80A6F4D63}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K12)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{A6A40976-BC44-445F-BC63-960F2CC667D6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K12)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{DBE55215-CCAF-47A6-A66F-A844997F7F37}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K12)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{B5A3263C-8419-4A29-820C-F0253F991398}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K12)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K12:L12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{D7CC562B-C452-4793-8AA2-7D0BDD369C88}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,I14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{469A9679-0D51-4DFC-A85C-B2468AA21907}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,I14)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{745D83CB-5832-4BF5-9958-63FFEED7E84D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,I14)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{7088C5F3-089E-4EE8-8043-5F5F84882847}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,I14)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{1E2C5CAA-C879-4021-AB8E-07F25BDE16D6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,I14)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{3C5029BC-D6D1-4E5B-8D47-BCDB383C88F8}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,I14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I14:J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{692B840C-D8D4-4932-BA76-B94163768DF0}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14:L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{DF0E9109-EF39-4553-957E-85BD09406DDE}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,K14)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{A648859B-0173-427E-A888-C36C91ED17E4}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,K14)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{3A9E8A9A-A1FC-44DA-B2F7-DC455F31B2E8}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,K14)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{16392209-DD84-4EFA-8125-DB4890B5D96D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,K14)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{B6316970-3E86-4625-8007-69A8F7DBBBEA}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,K14)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14:L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{DCB9FADB-E9FF-4E61-A393-79D4781034BA}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P54)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{13C80F4B-BA44-4DAE-8AD3-5C265406D8C9}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P54)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{9F4C097B-E792-4C10-9BCE-D8B7F719985D}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P54)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{040F1362-CE83-4EFD-9CB4-3E7E78382351}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P54)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{C4FB91D7-8B7A-40ED-938A-0B9BBDE3C4BB}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P54)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{CF567AD5-2AE7-40D0-99D8-73DF9B5FBFE6}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P54)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P54:Q54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{478F7F7D-B3D5-4914-9390-9101052EF1FA}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P55)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{85F72C6A-3133-4C9D-BBDB-25DD2BB52F03}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,P55)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{A83B4988-3BA6-45C4-B085-70BA74BF0611}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,P55)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{B6B80ECC-20F5-4691-8F01-5DED33463297}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,P55)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{8B611D6B-E1CE-4616-9D8B-D7D41031AE42}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,P55)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{E8C8D66F-D5CA-4296-9799-5216467FDB39}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,P55)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P55:Q55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{3CF90CD5-3F3D-4956-8B30-6E778FC8BB90}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N54)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{CF2F76B0-E98A-4ABB-B3B8-B50CCB74FEB7}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,N54)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{258C6B37-9E1D-4F36-984B-BA5D12FACCEA}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,N54)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0E28C1D6-0A2A-4E3D-AAFD-CD77FD7EC8D1}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,N54)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{1E552304-15AB-4160-903C-4EC9B9AD9B0B}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,N54)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{EDDA61C5-9B50-4267-8128-C817310CC733}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N54)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N54:O54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{F562FDD7-9C68-4FAA-BECE-F3D85EB16C73}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N55)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="6" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{B58B3ADF-ED38-4854-B78D-CA3141522ED0}">
+            <xm:f>NOT(ISERROR(SEARCH($A$61,N55)))</xm:f>
+            <xm:f>$A$61</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="5" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{A2FED661-42D3-43C6-B7B6-D985C643F5B3}">
+            <xm:f>NOT(ISERROR(SEARCH($A$60,N55)))</xm:f>
+            <xm:f>$A$60</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="0.79995117038483843"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{3EB34422-1DC8-4D86-9A99-D633CA42789F}">
+            <xm:f>NOT(ISERROR(SEARCH($A$62,N55)))</xm:f>
+            <xm:f>$A$62</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{49A1FCD6-E92D-4E4B-A525-082F54AB84C6}">
+            <xm:f>NOT(ISERROR(SEARCH($A$63,N55)))</xm:f>
+            <xm:f>$A$63</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="0.79998168889431442"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{28C0941B-11B6-4287-9F24-42D5AC6CBB60}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,N55)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N55:O55</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:D20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="87.109375" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="2:4" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="2:4" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="2:4" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="2:4" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="2:4" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B13" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="2:2" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" spans="2:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
 </file>
--- a/Documentation/RACI.xlsx
+++ b/Documentation/RACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\AutoSocDeploy\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunoguei\Desktop\PA_2023\AutoSocDeploy\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5FEC9-961C-4241-B8B6-D44D354E7F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A0E84-C780-4914-AF30-975F6CF2F573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="2" r:id="rId1"/>
@@ -2023,29 +2023,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="84.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
@@ -2063,10 +2063,10 @@
       <c r="M2" s="14"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
         <v>18</v>
@@ -2096,7 +2096,7 @@
       <c r="Q4" s="36"/>
       <c r="R4" s="37"/>
     </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="22" t="s">
         <v>22</v>
@@ -2118,7 +2118,7 @@
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
         <v>21</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
         <v>12</v>
@@ -2212,7 +2212,7 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16" t="s">
         <v>31</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
         <v>32</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>33</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
         <v>34</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
         <v>35</v>
@@ -2428,13 +2428,13 @@
       </c>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>6</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>37</v>
@@ -2500,7 +2500,7 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
         <v>38</v>
@@ -2536,7 +2536,7 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
@@ -2558,7 +2558,7 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="16" t="s">
         <v>39</v>
@@ -2594,13 +2594,13 @@
       </c>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>6</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
         <v>41</v>
@@ -2666,13 +2666,13 @@
       </c>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2698,7 +2698,7 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
         <v>43</v>
@@ -2734,13 +2734,13 @@
       </c>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2770,7 +2770,7 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16" t="s">
         <v>45</v>
@@ -2806,13 +2806,13 @@
       </c>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2842,7 +2842,7 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
         <v>47</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="16" t="s">
         <v>48</v>
@@ -2914,7 +2914,7 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>49</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="16" t="s">
         <v>50</v>
@@ -2986,7 +2986,7 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
         <v>51</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
         <v>53</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="16" t="s">
         <v>54</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
         <v>55</v>
@@ -3162,7 +3162,7 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="16" t="s">
         <v>56</v>
@@ -3194,7 +3194,7 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16" t="s">
         <v>57</v>
@@ -3226,7 +3226,7 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16" t="s">
         <v>58</v>
@@ -3258,7 +3258,7 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16" t="s">
         <v>59</v>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="R39" s="18"/>
     </row>
-    <row r="40" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16" t="s">
         <v>60</v>
@@ -3330,13 +3330,13 @@
       </c>
       <c r="R40" s="18"/>
     </row>
-    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -3366,13 +3366,13 @@
       </c>
       <c r="R41" s="18"/>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="R42" s="18"/>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="16" t="s">
         <v>63</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="R43" s="18"/>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="16" t="s">
         <v>64</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="R44" s="18"/>
     </row>
-    <row r="45" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="22" t="s">
         <v>14</v>
@@ -3496,7 +3496,7 @@
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
     </row>
-    <row r="46" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>65</v>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>66</v>
@@ -3568,7 +3568,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>67</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>68</v>
@@ -3640,7 +3640,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>69</v>
@@ -3672,7 +3672,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>70</v>
@@ -3704,7 +3704,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="30" t="s">
         <v>15</v>
@@ -3726,7 +3726,7 @@
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="16" t="s">
         <v>71</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="R53" s="18"/>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="16" t="s">
         <v>72</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="R54" s="18"/>
     </row>
-    <row r="55" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="16" t="s">
         <v>73</v>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="R55" s="18"/>
     </row>
-    <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="30" t="s">
         <v>23</v>
@@ -3856,7 +3856,7 @@
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="31" t="s">
         <v>29</v>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="R57" s="18"/>
     </row>
-    <row r="58" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3908,7 +3908,7 @@
       <c r="M58"/>
       <c r="O58" s="29"/>
     </row>
-    <row r="59" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="O59" s="29"/>
     </row>
-    <row r="60" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>7</v>
       </c>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="O60" s="29"/>
     </row>
-    <row r="61" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>8</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="N61" s="6"/>
       <c r="O61" s="29"/>
     </row>
-    <row r="62" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>9</v>
       </c>
@@ -3977,10 +3977,10 @@
       <c r="M62" s="6"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O64" s="1"/>
     </row>
   </sheetData>
